--- a/Excel/表6压力剖面.xlsx
+++ b/Excel/表6压力剖面.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B24143C-3F37-4587-8157-418859A51D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD32415-2C4D-4948-971F-4FCCDF04DEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -251,7 +262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,13 +297,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -307,13 +331,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -337,13 +364,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>220980</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1409700</xdr:rowOff>
     </xdr:to>
@@ -375,7 +402,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="0"/>
+          <a:off x="1440180" y="0"/>
           <a:ext cx="4145280" cy="5486400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -674,25 +701,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="177.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="177.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="143.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="143.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="J2" s="3">
+        <f>2000+50*5</f>
+        <v>2250</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" ht="144" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="144" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
